--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/ALABAMA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/ALABAMA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1109"/>
+  <dimension ref="A1:D1103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -765,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="30">
@@ -901,14 +901,14 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="41">
@@ -934,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="D42">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="43">
@@ -1129,13 +1129,13 @@
         <v>7</v>
       </c>
       <c r="D57">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C58">
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="D62">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C63">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C70">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C71">
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="D76">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="77">
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="D93">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="94">
@@ -1647,7 +1647,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C97">
@@ -1738,7 +1738,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C104">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C107">
@@ -1951,14 +1951,14 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C120">
         <v>7</v>
       </c>
       <c r="D120">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="121">
@@ -2099,7 +2099,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C135">
@@ -2280,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="D144">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="145">
@@ -2293,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="D145">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="146">
@@ -2402,7 +2402,7 @@
         <v>7</v>
       </c>
       <c r="D153">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="154">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C164">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C165">
@@ -2584,7 +2584,7 @@
         <v>7</v>
       </c>
       <c r="D167">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="168">
@@ -2642,12 +2642,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C172">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C175">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C180">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C184">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C187">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C192">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C198">
@@ -3005,7 +3005,7 @@
         <v>7</v>
       </c>
       <c r="D199">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="200">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C219">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C220">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C228">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C236">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C240">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C241">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C242">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C243">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C253">
@@ -3790,13 +3790,13 @@
         <v>7</v>
       </c>
       <c r="D259">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C260">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C264">
@@ -3868,7 +3868,7 @@
         <v>7</v>
       </c>
       <c r="D265">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="266">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C274">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C276">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C278">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C279">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C280">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C283">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C289">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C293">
@@ -4263,7 +4263,7 @@
         <v>7</v>
       </c>
       <c r="D295">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C298">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C301">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C305">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C310">
@@ -4510,13 +4510,13 @@
         <v>7</v>
       </c>
       <c r="D314">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C319">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C321">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C334">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C336">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C339">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C342">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C356">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C364">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C367">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C371">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C372">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C373">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C375">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C376">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C379">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C384">
@@ -5451,13 +5451,13 @@
         <v>7</v>
       </c>
       <c r="D386">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,20 +5496,20 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C390">
         <v>7</v>
       </c>
       <c r="D390">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C391">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C398">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C399">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C404">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C407">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C416">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C421">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C424">
@@ -5956,14 +5956,14 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C425">
         <v>7</v>
       </c>
       <c r="D425">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="426">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C429">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C431">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C434">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C435">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C437">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C438">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C442">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C443">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C449">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C450">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C454">
@@ -6397,7 +6397,7 @@
         <v>7</v>
       </c>
       <c r="D458">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="459">
@@ -6611,7 +6611,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C475">
@@ -7164,7 +7164,7 @@
         <v>7</v>
       </c>
       <c r="D517">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="518">
@@ -7261,7 +7261,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C525">
@@ -7450,7 +7450,7 @@
         <v>7</v>
       </c>
       <c r="D539">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="540">
@@ -7552,7 +7552,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C547">
@@ -7598,7 +7598,7 @@
         <v>7</v>
       </c>
       <c r="D550">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="551">
@@ -7643,7 +7643,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C554">
@@ -7695,7 +7695,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C558">
@@ -7708,7 +7708,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C559">
@@ -7830,7 +7830,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C568">
@@ -7869,7 +7869,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C571">
@@ -7934,7 +7934,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C576">
@@ -8160,7 +8160,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C593">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C595">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C600">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C607">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C612">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C614">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C617">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C620">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C654">
@@ -9017,7 +9017,7 @@
         <v>7</v>
       </c>
       <c r="D658">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="659">
@@ -9160,7 +9160,7 @@
         <v>7</v>
       </c>
       <c r="D669">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="670">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C675">
@@ -9303,7 +9303,7 @@
         <v>7</v>
       </c>
       <c r="D680">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="681">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C706">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C713">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C714">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C715">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C716">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C717">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C718">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C720">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C722">
@@ -10029,7 +10029,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C736">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C753">
@@ -10432,7 +10432,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C767">
@@ -10458,7 +10458,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C769">
@@ -10536,7 +10536,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C775">
@@ -10549,7 +10549,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C776">
@@ -10588,7 +10588,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C779">
@@ -10627,7 +10627,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C782">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C787">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C799">
@@ -10879,7 +10879,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C801">
@@ -10905,7 +10905,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C803">
@@ -10918,7 +10918,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C804">
@@ -10944,7 +10944,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C806">
@@ -10983,7 +10983,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C809">
@@ -11136,7 +11136,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C820">
@@ -11201,7 +11201,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C825">
@@ -11247,7 +11247,7 @@
         <v>7</v>
       </c>
       <c r="D828">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="829">
@@ -11357,7 +11357,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C837">
@@ -11435,7 +11435,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C843">
@@ -11526,7 +11526,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C850">
@@ -11539,7 +11539,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C851">
@@ -11552,7 +11552,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C852">
@@ -11565,7 +11565,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C853">
@@ -11578,7 +11578,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C854">
@@ -11694,7 +11694,7 @@
         <v>7</v>
       </c>
       <c r="D862">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="863">
@@ -11925,7 +11925,7 @@
         <v>7</v>
       </c>
       <c r="D879">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="880">
@@ -12022,7 +12022,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C887">
@@ -12055,7 +12055,7 @@
         <v>7</v>
       </c>
       <c r="D889">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="890">
@@ -12339,7 +12339,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C911">
@@ -12487,7 +12487,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C922">
@@ -12539,7 +12539,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C926">
@@ -12578,7 +12578,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C929">
@@ -12694,7 +12694,7 @@
         <v>7</v>
       </c>
       <c r="D937">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="938">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C940">
@@ -12765,7 +12765,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C943">
@@ -12850,7 +12850,7 @@
         <v>7</v>
       </c>
       <c r="D949">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="950">
@@ -12895,7 +12895,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C953">
@@ -12934,7 +12934,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C956">
@@ -12960,7 +12960,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C958">
@@ -13103,7 +13103,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C969">
@@ -13259,7 +13259,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C981">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C984">
@@ -13311,7 +13311,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C985">
@@ -13324,7 +13324,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C986">
@@ -13337,7 +13337,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C987">
@@ -13383,7 +13383,7 @@
         <v>7</v>
       </c>
       <c r="D990">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="991">
@@ -13422,7 +13422,7 @@
         <v>7</v>
       </c>
       <c r="D993">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="994">
@@ -13467,7 +13467,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C997">
@@ -13519,7 +13519,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1001">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1003">
@@ -13571,7 +13571,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1005">
@@ -13610,7 +13610,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1008">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1017">
@@ -13740,7 +13740,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1018">
@@ -13792,7 +13792,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1022">
@@ -13870,7 +13870,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1028">
@@ -13896,7 +13896,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1030">
@@ -14091,7 +14091,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1045">
@@ -14124,7 +14124,7 @@
         <v>7</v>
       </c>
       <c r="D1047">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="1048">
@@ -14208,7 +14208,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1054">
@@ -14647,7 +14647,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1087">
@@ -14693,7 +14693,7 @@
         <v>7</v>
       </c>
       <c r="D1090">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="1091">
@@ -14738,7 +14738,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1094">
@@ -14751,7 +14751,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1095">
@@ -14771,7 +14771,7 @@
         <v>7</v>
       </c>
       <c r="D1096">
-        <v>0.0009119332985930171</v>
+        <v>0.0009119332985930173</v>
       </c>
     </row>
     <row r="1097">
@@ -14863,41 +14863,6 @@
       </c>
       <c r="D1103">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
